--- a/tabboy/avatar/avatar_category.xlsx
+++ b/tabboy/avatar/avatar_category.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -34,91 +34,133 @@
     <t>颜色列表</t>
   </si>
   <si>
+    <t>是否展示</t>
+  </si>
+  <si>
+    <t>印尼语</t>
+  </si>
+  <si>
     <t>面部</t>
   </si>
   <si>
     <t>肤色</t>
   </si>
   <si>
-    <t>skin</t>
-  </si>
-  <si>
     <t>Skin Color</t>
   </si>
   <si>
     <t>#ebd065|#372802|#232323</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>Warna Kulit</t>
+  </si>
+  <si>
     <t>五官</t>
   </si>
   <si>
-    <t>face</t>
+    <t>Facial</t>
   </si>
   <si>
     <t>Face Color</t>
   </si>
   <si>
+    <t>Wajah</t>
+  </si>
+  <si>
     <t>发型</t>
   </si>
   <si>
-    <t>hair</t>
+    <t>Hair</t>
   </si>
   <si>
     <t>Hair Color</t>
   </si>
   <si>
+    <t>Rambut</t>
+  </si>
+  <si>
     <t>胡子</t>
   </si>
   <si>
-    <t>mustache</t>
+    <t>Beards</t>
   </si>
   <si>
     <t>Mustache Color</t>
   </si>
   <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>Jenggot</t>
+  </si>
+  <si>
     <t>上装</t>
   </si>
   <si>
     <t>衣服</t>
   </si>
   <si>
-    <t>clothes</t>
+    <t>Clothes</t>
+  </si>
+  <si>
+    <t>Pakaian</t>
   </si>
   <si>
     <t>外套</t>
   </si>
   <si>
-    <t>coat</t>
+    <t>Coats</t>
+  </si>
+  <si>
+    <t>Jas</t>
   </si>
   <si>
     <t>下装</t>
   </si>
   <si>
-    <t>pants</t>
+    <t>Pants</t>
+  </si>
+  <si>
+    <t>Celana</t>
   </si>
   <si>
     <t>帽</t>
   </si>
   <si>
-    <t>hat</t>
+    <t>Hat</t>
+  </si>
+  <si>
+    <t>Topi</t>
   </si>
   <si>
     <t>鞋</t>
   </si>
   <si>
-    <t>shoes</t>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Sepatu</t>
   </si>
   <si>
     <t>袜</t>
   </si>
   <si>
-    <t>stocks</t>
-  </si>
-  <si>
-    <t>背</t>
-  </si>
-  <si>
-    <t>bag</t>
+    <t>Socks</t>
+  </si>
+  <si>
+    <t>Kaos Kaki</t>
+  </si>
+  <si>
+    <t>背部</t>
+  </si>
+  <si>
+    <t>Props</t>
+  </si>
+  <si>
+    <t>Atribut</t>
   </si>
   <si>
     <t>装饰</t>
@@ -127,49 +169,73 @@
     <t>膝盖</t>
   </si>
   <si>
-    <t>knee</t>
+    <t>Knee</t>
+  </si>
+  <si>
+    <t>Lutut</t>
   </si>
   <si>
     <t>眼镜</t>
   </si>
   <si>
-    <t>glass</t>
+    <t>Glasses</t>
+  </si>
+  <si>
+    <t>Kaca Mata</t>
   </si>
   <si>
     <t>耳饰</t>
   </si>
   <si>
-    <t>carrings</t>
+    <t>Earrings</t>
+  </si>
+  <si>
+    <t>Anting-anting</t>
   </si>
   <si>
     <t>颈饰</t>
   </si>
   <si>
-    <t>neck</t>
+    <t>Necklaces</t>
+  </si>
+  <si>
+    <t>Kalung</t>
   </si>
   <si>
     <t>腕饰</t>
   </si>
   <si>
-    <t>headgear</t>
+    <t>Wristlet</t>
+  </si>
+  <si>
+    <t>penutup kepala</t>
   </si>
   <si>
     <t>手腕</t>
   </si>
   <si>
-    <t>wrist</t>
+    <t>Wrist</t>
+  </si>
+  <si>
+    <t>Pergelangan tangan</t>
   </si>
   <si>
     <t>纹身</t>
   </si>
   <si>
-    <t>tattoo</t>
+    <t>Tattoo</t>
+  </si>
+  <si>
+    <t>Tato</t>
   </si>
   <si>
     <t>套装</t>
   </si>
   <si>
-    <t>suit</t>
+    <t>Suit</t>
+  </si>
+  <si>
+    <t>Setelan</t>
   </si>
 </sst>
 </file>
@@ -178,9 +244,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -220,83 +286,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,54 +399,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,13 +438,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,31 +594,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,133 +618,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,6 +656,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -605,17 +680,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,31 +730,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,148 +749,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,15 +1229,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F20"/>
+      <selection activeCell="A1" sqref="A1:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:6">
+    <row r="1" ht="17.55" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1190,326 +1256,440 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="17.55" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="17.55" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="17.55" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="17.55" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" ht="17.55" spans="1:6">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="17.55" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="17.55" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="17.55" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" ht="17.55" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="17.55" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" ht="17.55" spans="1:6">
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="17.55" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" ht="17.55" spans="1:6">
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" ht="17.55" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" ht="17.55" spans="1:6">
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" ht="17.55" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" ht="17.55" spans="1:6">
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" ht="17.55" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" ht="17.55" spans="1:6">
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" ht="17.55" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" ht="17.55" spans="1:6">
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" ht="17.55" spans="1:8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" ht="17.55" spans="1:6">
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" ht="17.55" spans="1:8">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" ht="17.55" spans="1:6">
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" ht="17.55" spans="1:8">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" ht="17.55" spans="1:6">
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" ht="17.55" spans="1:8">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" ht="17.55" spans="1:6">
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" ht="17.55" spans="1:8">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" ht="17.55" spans="1:6">
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" ht="17.55" spans="1:8">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" ht="17.55" spans="1:6">
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" ht="17.55" spans="1:8">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" ht="17.55" spans="1:6">
+      <c r="G18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" ht="17.55" spans="1:8">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>68</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" ht="17.55" spans="1:6">
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" ht="17.55" spans="1:8">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabboy/avatar/avatar_category.xlsx
+++ b/tabboy/avatar/avatar_category.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -31,12 +31,18 @@
     <t>颜色名称</t>
   </si>
   <si>
+    <t>操作类型</t>
+  </si>
+  <si>
     <t>颜色列表</t>
   </si>
   <si>
     <t>是否展示</t>
   </si>
   <si>
+    <t>选中项</t>
+  </si>
+  <si>
     <t>印尼语</t>
   </si>
   <si>
@@ -49,36 +55,39 @@
     <t>Skin Color</t>
   </si>
   <si>
+    <t>#e89d83|#d9b49e|#6e330f</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>Warna Kulit</t>
+  </si>
+  <si>
+    <t>五官</t>
+  </si>
+  <si>
+    <t>Facial</t>
+  </si>
+  <si>
+    <t>Face Color</t>
+  </si>
+  <si>
+    <t>Wajah</t>
+  </si>
+  <si>
+    <t>发型</t>
+  </si>
+  <si>
+    <t>Hair</t>
+  </si>
+  <si>
+    <t>Hair Color</t>
+  </si>
+  <si>
     <t>#ebd065|#372802|#232323</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>Warna Kulit</t>
-  </si>
-  <si>
-    <t>五官</t>
-  </si>
-  <si>
-    <t>Facial</t>
-  </si>
-  <si>
-    <t>Face Color</t>
-  </si>
-  <si>
-    <t>Wajah</t>
-  </si>
-  <si>
-    <t>发型</t>
-  </si>
-  <si>
-    <t>Hair</t>
-  </si>
-  <si>
-    <t>Hair Color</t>
-  </si>
-  <si>
     <t>Rambut</t>
   </si>
   <si>
@@ -91,9 +100,6 @@
     <t>Mustache Color</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>Jenggot</t>
   </si>
   <si>
@@ -208,7 +214,7 @@
     <t>Wristlet</t>
   </si>
   <si>
-    <t>penutup kepala</t>
+    <t>Penutup kepala</t>
   </si>
   <si>
     <t>手腕</t>
@@ -243,9 +249,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -286,7 +292,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,14 +358,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -323,104 +420,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -428,6 +427,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -438,49 +444,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,133 +624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,8 +656,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,56 +667,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,6 +687,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -744,99 +715,134 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -848,49 +854,49 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1229,15 +1235,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H20"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:8">
+    <row r="1" ht="17.55" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1262,433 +1268,527 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="17.55" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="17.55" spans="1:10">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="17.55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="17.55" spans="1:10">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" ht="17.55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="17.55" spans="1:10">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="17.55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" ht="17.55" spans="1:10">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" ht="17.55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="17.55" spans="1:10">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" ht="17.55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" ht="17.55" spans="1:10">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" ht="17.55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" ht="17.55" spans="1:10">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" ht="17.55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" ht="17.55" spans="1:10">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" ht="17.55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" ht="17.55" spans="1:10">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" ht="17.55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" ht="17.55" spans="1:10">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" ht="17.55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" ht="17.55" spans="1:10">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" ht="17.55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" ht="17.55" spans="1:10">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" ht="17.55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" ht="17.55" spans="1:10">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" ht="17.55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" ht="17.55" spans="1:10">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" ht="17.55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" ht="17.55" spans="1:10">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" ht="17.55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" ht="17.55" spans="1:10">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" ht="17.55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" ht="17.55" spans="1:10">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" ht="17.55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" ht="17.55" spans="1:10">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" ht="17.55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" ht="17.55" spans="1:10">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>73</v>
+        <v>14</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
